--- a/pq-debug-training/template/Template.xlsx
+++ b/pq-debug-training/template/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\GPT\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F762AFF9-0D55-44DB-950F-FCABD4B29796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B52EA2C-6B76-49AF-9C38-E151E1C83D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{851F3BFC-6FAB-46FF-A699-5BCECF9DA746}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="49">
   <si>
     <t>Customer Name</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Color</t>
+  </si>
+  <si>
+    <t>Sample Data</t>
   </si>
 </sst>
 </file>
@@ -576,10 +579,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F567A5D-5D2C-4C5C-B906-A4905550DDD5}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H2" s="4">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3">
+        <v>800</v>
+      </c>
+      <c r="H3" s="4">
+        <v>45415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H4" s="4">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="3">
+        <v>300</v>
+      </c>
+      <c r="H5" s="4">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="3">
+        <v>150</v>
+      </c>
+      <c r="H6" s="4">
+        <v>45421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="3">
+        <v>600</v>
+      </c>
+      <c r="H7" s="4">
+        <v>45423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="3">
+        <v>400</v>
+      </c>
+      <c r="H8" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="3">
+        <v>200</v>
+      </c>
+      <c r="H9" s="4">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3">
+        <v>400</v>
+      </c>
+      <c r="H10" s="4">
+        <v>45429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="3">
+        <v>50</v>
+      </c>
+      <c r="H11" s="4">
+        <v>45431</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C431A7E-ED6B-4DE5-A527-9B62B2B45C11}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B39" sqref="B38:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,9 +888,10 @@
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,8 +916,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -641,10 +941,10 @@
         <v>2000</v>
       </c>
       <c r="H2" s="4">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -665,10 +965,10 @@
         <v>800</v>
       </c>
       <c r="H3" s="4">
-        <v>45415</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -689,10 +989,10 @@
         <v>1500</v>
       </c>
       <c r="H4" s="4">
-        <v>45417</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -713,10 +1013,10 @@
         <v>300</v>
       </c>
       <c r="H5" s="4">
-        <v>45419</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -737,10 +1037,10 @@
         <v>150</v>
       </c>
       <c r="H6" s="4">
-        <v>45421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -761,10 +1061,10 @@
         <v>600</v>
       </c>
       <c r="H7" s="4">
-        <v>45423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -785,14 +1085,14 @@
         <v>400</v>
       </c>
       <c r="H8" s="4">
-        <v>45425</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="6"/>
       <c r="C9" t="s">
         <v>36</v>
       </c>
@@ -809,10 +1109,10 @@
         <v>200</v>
       </c>
       <c r="H9" s="4">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -833,301 +1133,10 @@
         <v>400</v>
       </c>
       <c r="H10" s="4">
-        <v>45429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="3">
-        <v>50</v>
-      </c>
-      <c r="H11" s="4">
-        <v>45431</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C431A7E-ED6B-4DE5-A527-9B62B2B45C11}">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H2" s="4">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="3">
-        <v>800</v>
-      </c>
-      <c r="H3" s="4">
-        <v>45385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H4" s="4">
-        <v>45387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="3">
-        <v>300</v>
-      </c>
-      <c r="H5" s="4">
-        <v>45389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="3">
-        <v>150</v>
-      </c>
-      <c r="H6" s="4">
-        <v>45391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="3">
-        <v>600</v>
-      </c>
-      <c r="H7" s="4">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="3">
-        <v>400</v>
-      </c>
-      <c r="H8" s="4">
-        <v>45395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="3">
-        <v>200</v>
-      </c>
-      <c r="H9" s="4">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="3">
-        <v>400</v>
-      </c>
-      <c r="H10" s="4">
         <v>45399</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
